--- a/biology/Botanique/Trèfle_des_champs/Trèfle_des_champs.xlsx
+++ b/biology/Botanique/Trèfle_des_champs/Trèfle_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_champs</t>
+          <t>Trèfle_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_champs</t>
+          <t>Trèfle_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trèfle des champs est un nom vernaculaire donné spontanément à la plupart des espèces de trèfles qui se développent en bordure de champs. Néanmoins, même si les espèces qui suivent n'ont pas le monopole de cet habitat, l'appellation trèfle des champs est réservée généralement :
 à Trifolium arvense, nommé également Trèfle Pied-de-lièvre
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_des_champs</t>
+          <t>Trèfle_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noms scientifiques d'espèce, arvense et campestre font référence tous deux au champ.
  Portail de la botanique                     </t>
